--- a/MosaicReconstruction/example/param_files/tissue61.xlsx
+++ b/MosaicReconstruction/example/param_files/tissue61.xlsx
@@ -121,10 +121,10 @@
     <t xml:space="preserve">z6_x1</t>
   </si>
   <si>
-    <t xml:space="preserve">z6_x0002__x2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z6_x0003__x3</t>
+    <t xml:space="preserve">z6_x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z6_x3</t>
   </si>
   <si>
     <t xml:space="preserve">z7_x0</t>
@@ -235,11 +235,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,10 +267,10 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.45"/>
@@ -329,7 +329,7 @@
       <c r="C3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -346,7 +346,7 @@
       <c r="C4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="n">
@@ -363,7 +363,7 @@
       <c r="C5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -380,7 +380,7 @@
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -397,7 +397,7 @@
       <c r="C7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -414,7 +414,7 @@
       <c r="C8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="0" t="n">
@@ -431,7 +431,7 @@
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="0" t="n">
@@ -448,7 +448,7 @@
       <c r="C10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -465,7 +465,7 @@
       <c r="C11" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -482,7 +482,7 @@
       <c r="C12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -499,7 +499,7 @@
       <c r="C13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -516,7 +516,7 @@
       <c r="C14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="0" t="n">
@@ -550,7 +550,7 @@
       <c r="C16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="0" t="n">
@@ -567,7 +567,7 @@
       <c r="C17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -581,10 +581,10 @@
       <c r="B18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="0" t="n">
@@ -598,10 +598,10 @@
       <c r="B19" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -615,10 +615,10 @@
       <c r="B20" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -632,10 +632,10 @@
       <c r="B21" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="0" t="n">
@@ -649,10 +649,10 @@
       <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="0" t="n">
@@ -666,10 +666,10 @@
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="0" t="n">
@@ -683,10 +683,10 @@
       <c r="B24" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -700,10 +700,10 @@
       <c r="B25" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="0" t="n">
@@ -717,10 +717,10 @@
       <c r="B26" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="0" t="n">
@@ -734,10 +734,10 @@
       <c r="B27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="0" t="n">
@@ -751,10 +751,10 @@
       <c r="B28" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -768,10 +768,10 @@
       <c r="B29" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -785,10 +785,10 @@
       <c r="B30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="0" t="n">
@@ -802,10 +802,10 @@
       <c r="B31" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="0" t="n">
@@ -819,10 +819,10 @@
       <c r="B32" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="0" t="n">
@@ -836,10 +836,10 @@
       <c r="B33" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="0" t="n">
@@ -853,10 +853,10 @@
       <c r="B34" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="0" t="n">
@@ -870,10 +870,10 @@
       <c r="B35" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="0" t="n">
@@ -887,10 +887,10 @@
       <c r="B36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="0" t="n">
@@ -904,10 +904,10 @@
       <c r="B37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="0" t="n">
